--- a/Joker.xlsx
+++ b/Joker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizcf/2 Semestre - DP/CDADOS/P1_Cdados_BW/interface_etiquetagem_tweets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizcf/2 Semestre - DP/CDADOS/P1_Cdados_BW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23DBB8-BCA9-A24D-9088-960278BCE41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A507E-6BEF-FD4E-A2D7-361044C994FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5228,7 +5228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
       <selection activeCell="B600" sqref="B600"/>
     </sheetView>
   </sheetViews>
@@ -10050,7 +10050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812CF48-3926-450D-96F4-D96B8D5FE8EC}">
   <dimension ref="A1:A611"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A611"/>
     </sheetView>
   </sheetViews>
